--- a/dokumentation/Projektplan.xlsx
+++ b/dokumentation/Projektplan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Project Planner</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>PERIODS</t>
-  </si>
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 01</t>
   </si>
   <si>
     <t>Activity 02</t>
@@ -224,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Period Highlight:</t>
+  </si>
+  <si>
+    <t>Aktivität</t>
   </si>
 </sst>
 </file>
@@ -956,7 +953,7 @@
   <dimension ref="B2:BQ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -988,7 +985,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="I3" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1008,11 +1005,11 @@
       </c>
       <c r="X3" s="12"/>
       <c r="Y3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC3" s="13"/>
       <c r="AD3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -1020,7 +1017,7 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="14"/>
       <c r="AL3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1067,7 +1064,7 @@
     </row>
     <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -1281,9 +1278,7 @@
       <c r="BQ8" s="1"/>
     </row>
     <row r="9" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="16">
         <v>1</v>
       </c>
@@ -1302,7 +1297,7 @@
     </row>
     <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -1322,7 +1317,7 @@
     </row>
     <row r="11" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="16">
         <v>2</v>
@@ -1342,7 +1337,7 @@
     </row>
     <row r="12" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="16">
         <v>4</v>
@@ -1362,7 +1357,7 @@
     </row>
     <row r="13" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="16">
         <v>4</v>
@@ -1382,7 +1377,7 @@
     </row>
     <row r="14" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="16">
         <v>4</v>
@@ -1402,7 +1397,7 @@
     </row>
     <row r="15" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="16">
         <v>5</v>
@@ -1422,7 +1417,7 @@
     </row>
     <row r="16" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="16">
         <v>5</v>
@@ -1442,7 +1437,7 @@
     </row>
     <row r="17" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="16">
         <v>5</v>
@@ -1462,7 +1457,7 @@
     </row>
     <row r="18" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="16">
         <v>6</v>
@@ -1482,7 +1477,7 @@
     </row>
     <row r="19" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="18">
         <v>6</v>
@@ -1502,7 +1497,7 @@
     </row>
     <row r="20" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="16">
         <v>9</v>
@@ -1522,7 +1517,7 @@
     </row>
     <row r="21" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="16">
         <v>9</v>
@@ -1542,7 +1537,7 @@
     </row>
     <row r="22" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="16">
         <v>9</v>
@@ -1562,7 +1557,7 @@
     </row>
     <row r="23" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="16">
         <v>9</v>
@@ -1582,7 +1577,7 @@
     </row>
     <row r="24" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="16">
         <v>10</v>
@@ -1602,7 +1597,7 @@
     </row>
     <row r="25" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="16">
         <v>11</v>
@@ -1622,7 +1617,7 @@
     </row>
     <row r="26" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="16">
         <v>12</v>
@@ -1642,7 +1637,7 @@
     </row>
     <row r="27" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="16">
         <v>12</v>
@@ -1662,7 +1657,7 @@
     </row>
     <row r="28" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="16">
         <v>14</v>
@@ -1682,7 +1677,7 @@
     </row>
     <row r="29" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="16">
         <v>14</v>
@@ -1702,7 +1697,7 @@
     </row>
     <row r="30" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="16">
         <v>14</v>
@@ -1722,7 +1717,7 @@
     </row>
     <row r="31" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="16">
         <v>15</v>
@@ -1742,7 +1737,7 @@
     </row>
     <row r="32" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="16">
         <v>15</v>
@@ -1762,7 +1757,7 @@
     </row>
     <row r="33" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="16">
         <v>15</v>
@@ -1782,7 +1777,7 @@
     </row>
     <row r="34" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="16">
         <v>16</v>

--- a/dokumentation/Projektplan.xlsx
+++ b/dokumentation/Projektplan.xlsx
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
-  <si>
-    <t>Project Planner</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Plan</t>
   </si>
@@ -44,96 +41,6 @@
   </si>
   <si>
     <t>START</t>
-  </si>
-  <si>
-    <t>DURATION</t>
-  </si>
-  <si>
-    <t>ACTUAL</t>
-  </si>
-  <si>
-    <t>PERCENT</t>
-  </si>
-  <si>
-    <t>COMPLETE</t>
-  </si>
-  <si>
-    <t>PERIODS</t>
-  </si>
-  <si>
-    <t>Activity 02</t>
-  </si>
-  <si>
-    <t>Activity 03</t>
-  </si>
-  <si>
-    <t>Activity 04</t>
-  </si>
-  <si>
-    <t>Activity 05</t>
-  </si>
-  <si>
-    <t>Activity 06</t>
-  </si>
-  <si>
-    <t>Activity 07</t>
-  </si>
-  <si>
-    <t>Activity 08</t>
-  </si>
-  <si>
-    <t>Activity 09</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -222,12 +129,89 @@
   <si>
     <t>Aktivität</t>
   </si>
+  <si>
+    <t>HLR-01</t>
+  </si>
+  <si>
+    <t>DAUER</t>
+  </si>
+  <si>
+    <t>HLR-02</t>
+  </si>
+  <si>
+    <t>LLR-01-1</t>
+  </si>
+  <si>
+    <t>LLR-01-2</t>
+  </si>
+  <si>
+    <t>HLR-04</t>
+  </si>
+  <si>
+    <t>PROZENT</t>
+  </si>
+  <si>
+    <t>VOLLSTÄNDIG</t>
+  </si>
+  <si>
+    <t>WOCHEN</t>
+  </si>
+  <si>
+    <t>TATSÄCHL.</t>
+  </si>
+  <si>
+    <t>TASTÄCHL.</t>
+  </si>
+  <si>
+    <t>Projektplan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beginn des Plans: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">28.04.16 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Projektende: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>12.06.2016</t>
+    </r>
+  </si>
+  <si>
+    <t>LLR-02-1</t>
+  </si>
+  <si>
+    <t>LLR-02-2</t>
+  </si>
+  <si>
+    <t>LLR-02-3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -311,6 +295,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="8">
@@ -479,11 +471,11 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -681,7 +673,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
@@ -950,26 +942,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BQ34"/>
+  <dimension ref="B2:AX25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="7.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" style="1" customWidth="1"/>
-    <col min="9" max="28" width="2.77734375" style="1"/>
+    <col min="3" max="4" width="7.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9" max="15" width="5.77734375" style="1" customWidth="1"/>
+    <col min="16" max="28" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:69" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -977,7 +971,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:50" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -985,42 +979,18 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="I3" s="8" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="9">
         <v>1</v>
       </c>
       <c r="O3" s="8"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1033,61 +1003,83 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="AT5" s="1"/>
+    <row r="5" spans="2:50" x14ac:dyDescent="0.35">
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="2:69" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-    </row>
-    <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+    </row>
+    <row r="8" spans="2:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1116,248 +1108,156 @@
       <c r="O8" s="3">
         <v>7</v>
       </c>
-      <c r="P8" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="3">
-        <v>10</v>
-      </c>
-      <c r="S8" s="3">
-        <v>11</v>
-      </c>
-      <c r="T8" s="3">
-        <v>12</v>
-      </c>
-      <c r="U8" s="3">
-        <v>13</v>
-      </c>
-      <c r="V8" s="3">
-        <v>14</v>
-      </c>
-      <c r="W8" s="3">
-        <v>15</v>
-      </c>
-      <c r="X8" s="3">
-        <v>16</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>17</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>18</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>19</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>20</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>21</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>22</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>23</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>24</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>25</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>26</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>27</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>28</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>29</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>30</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>31</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>32</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>33</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>34</v>
-      </c>
-      <c r="AQ8" s="3">
-        <v>35</v>
-      </c>
-      <c r="AR8" s="3">
-        <v>36</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>37</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>38</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>39</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>40</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>41</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>42</v>
-      </c>
-      <c r="AY8" s="3">
-        <v>43</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>44</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>45</v>
-      </c>
-      <c r="BB8" s="3">
-        <v>46</v>
-      </c>
-      <c r="BC8" s="3">
-        <v>47</v>
-      </c>
-      <c r="BD8" s="3">
-        <v>48</v>
-      </c>
-      <c r="BE8" s="3">
-        <v>49</v>
-      </c>
-      <c r="BF8" s="3">
-        <v>50</v>
-      </c>
-      <c r="BG8" s="3">
-        <v>51</v>
-      </c>
-      <c r="BH8" s="3">
-        <v>52</v>
-      </c>
-      <c r="BI8" s="3">
-        <v>53</v>
-      </c>
-      <c r="BJ8" s="3">
-        <v>54</v>
-      </c>
-      <c r="BK8" s="3">
-        <v>55</v>
-      </c>
-      <c r="BL8" s="3">
-        <v>56</v>
-      </c>
-      <c r="BM8" s="3">
-        <v>57</v>
-      </c>
-      <c r="BN8" s="3">
-        <v>58</v>
-      </c>
-      <c r="BO8" s="3">
-        <v>59</v>
-      </c>
-      <c r="BP8" s="3">
-        <v>60</v>
-      </c>
-      <c r="BQ8" s="1"/>
-    </row>
-    <row r="9" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
       <c r="C9" s="16">
         <v>1</v>
       </c>
       <c r="D9" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
       </c>
       <c r="F9" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="17">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
       <c r="D10" s="16">
+        <v>3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="16">
         <v>6</v>
       </c>
-      <c r="E10" s="16">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
-        <v>6</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="2:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2</v>
-      </c>
-      <c r="D11" s="16">
-        <v>4</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>5</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="C12" s="16">
         <v>4</v>
       </c>
       <c r="D12" s="16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E12" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12" s="16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12" s="17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C13" s="16">
         <v>4</v>
@@ -1366,440 +1266,275 @@
         <v>2</v>
       </c>
       <c r="E13" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" s="16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13" s="17">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C14" s="16">
         <v>4</v>
       </c>
       <c r="D14" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="16">
         <v>4</v>
       </c>
-      <c r="F14" s="16">
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16">
         <v>6</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="16">
-        <v>5</v>
-      </c>
-      <c r="D15" s="16">
-        <v>4</v>
-      </c>
-      <c r="E15" s="16">
-        <v>5</v>
-      </c>
-      <c r="F15" s="16">
-        <v>3</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="16">
-        <v>5</v>
       </c>
       <c r="D16" s="16">
         <v>2</v>
       </c>
       <c r="E16" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G16" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="16">
-        <v>5</v>
-      </c>
-      <c r="D17" s="16">
-        <v>2</v>
-      </c>
-      <c r="E17" s="16">
-        <v>5</v>
-      </c>
-      <c r="F17" s="16">
-        <v>6</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="16">
-        <v>6</v>
-      </c>
-      <c r="D18" s="16">
-        <v>5</v>
-      </c>
-      <c r="E18" s="16">
-        <v>6</v>
-      </c>
-      <c r="F18" s="16">
-        <v>7</v>
-      </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="18">
-        <v>6</v>
-      </c>
-      <c r="D19" s="16">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16">
-        <v>5</v>
-      </c>
-      <c r="F19" s="16">
-        <v>8</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="16">
-        <v>9</v>
-      </c>
-      <c r="D20" s="16">
-        <v>3</v>
-      </c>
-      <c r="E20" s="16">
-        <v>9</v>
-      </c>
-      <c r="F20" s="16">
-        <v>3</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="16">
-        <v>9</v>
-      </c>
-      <c r="D21" s="16">
-        <v>6</v>
-      </c>
-      <c r="E21" s="16">
-        <v>9</v>
-      </c>
-      <c r="F21" s="16">
-        <v>7</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="16">
-        <v>9</v>
-      </c>
-      <c r="D22" s="16">
-        <v>3</v>
-      </c>
-      <c r="E22" s="16">
-        <v>9</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="16">
-        <v>9</v>
-      </c>
-      <c r="D23" s="16">
-        <v>4</v>
-      </c>
-      <c r="E23" s="16">
-        <v>8</v>
-      </c>
-      <c r="F23" s="16">
-        <v>5</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="16">
-        <v>10</v>
-      </c>
-      <c r="D24" s="16">
-        <v>5</v>
-      </c>
-      <c r="E24" s="16">
-        <v>10</v>
-      </c>
-      <c r="F24" s="16">
-        <v>3</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="16">
-        <v>11</v>
-      </c>
-      <c r="D25" s="16">
-        <v>2</v>
-      </c>
-      <c r="E25" s="16">
-        <v>11</v>
-      </c>
-      <c r="F25" s="16">
-        <v>5</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="16">
-        <v>12</v>
-      </c>
-      <c r="D26" s="16">
-        <v>6</v>
-      </c>
-      <c r="E26" s="16">
-        <v>12</v>
-      </c>
-      <c r="F26" s="16">
-        <v>7</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="16">
-        <v>12</v>
-      </c>
-      <c r="D27" s="16">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16">
-        <v>12</v>
-      </c>
-      <c r="F27" s="16">
-        <v>5</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="16">
-        <v>14</v>
-      </c>
-      <c r="D28" s="16">
-        <v>5</v>
-      </c>
-      <c r="E28" s="16">
-        <v>14</v>
-      </c>
-      <c r="F28" s="16">
-        <v>6</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="16">
-        <v>14</v>
-      </c>
-      <c r="D29" s="16">
-        <v>8</v>
-      </c>
-      <c r="E29" s="16">
-        <v>14</v>
-      </c>
-      <c r="F29" s="16">
-        <v>2</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="16">
-        <v>14</v>
-      </c>
-      <c r="D30" s="16">
-        <v>7</v>
-      </c>
-      <c r="E30" s="16">
-        <v>14</v>
-      </c>
-      <c r="F30" s="16">
-        <v>3</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="16">
-        <v>15</v>
-      </c>
-      <c r="D31" s="16">
-        <v>4</v>
-      </c>
-      <c r="E31" s="16">
-        <v>15</v>
-      </c>
-      <c r="F31" s="16">
-        <v>8</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="16">
-        <v>15</v>
-      </c>
-      <c r="D32" s="16">
-        <v>5</v>
-      </c>
-      <c r="E32" s="16">
-        <v>15</v>
-      </c>
-      <c r="F32" s="16">
-        <v>3</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="16">
-        <v>15</v>
-      </c>
-      <c r="D33" s="16">
-        <v>8</v>
-      </c>
-      <c r="E33" s="16">
-        <v>15</v>
-      </c>
-      <c r="F33" s="16">
-        <v>5</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="16">
-        <v>16</v>
-      </c>
-      <c r="D34" s="16">
-        <v>28</v>
-      </c>
-      <c r="E34" s="16">
-        <v>16</v>
-      </c>
-      <c r="F34" s="16">
-        <v>30</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0.5</v>
-      </c>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:BP34">
+  <conditionalFormatting sqref="I9:O16">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1825,12 +1560,12 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:BP35">
+  <conditionalFormatting sqref="B17:O17">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BP8">
+  <conditionalFormatting sqref="I8:O8">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>I$8=period_selected</formula>
     </cfRule>
@@ -1855,7 +1590,7 @@
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>259080</xdr:rowOff>
                   </to>

--- a/dokumentation/Projektplan.xlsx
+++ b/dokumentation/Projektplan.xlsx
@@ -945,7 +945,7 @@
   <dimension ref="B2:AX25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1143,19 +1143,6 @@
       </c>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
     </row>
     <row r="10" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
@@ -1178,19 +1165,6 @@
       </c>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
     </row>
     <row r="11" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
@@ -1213,16 +1187,6 @@
       </c>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
     </row>
     <row r="12" spans="2:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
@@ -1245,15 +1209,6 @@
       </c>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
     </row>
     <row r="13" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
@@ -1276,19 +1231,6 @@
       </c>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
     </row>
     <row r="14" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
@@ -1404,10 +1346,22 @@
       <c r="AA17"/>
       <c r="AB17"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>21</v>
       </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
@@ -1422,10 +1376,22 @@
       <c r="AA18"/>
       <c r="AB18"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>22</v>
       </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
@@ -1441,6 +1407,16 @@
       <c r="AB19"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="E20" s="12"/>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
@@ -1456,6 +1432,14 @@
       <c r="AB20"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="E21" s="13"/>
+      <c r="F21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="M21"/>
+      <c r="N21"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
@@ -1471,6 +1455,18 @@
       <c r="AB21"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="E22" s="14"/>
+      <c r="F22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
